--- a/data/pca/factorExposure/factorExposure_2015-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02138243224741402</v>
+        <v>0.01129149188531878</v>
       </c>
       <c r="C2">
-        <v>-0.03901649791215245</v>
+        <v>-0.05479335700863348</v>
       </c>
       <c r="D2">
-        <v>-0.1128008289892215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06164076422005632</v>
+      </c>
+      <c r="E2">
+        <v>-0.08830975925330906</v>
+      </c>
+      <c r="F2">
+        <v>0.05157549452623229</v>
+      </c>
+      <c r="G2">
+        <v>0.1430862937808906</v>
+      </c>
+      <c r="H2">
+        <v>0.003833170425538491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04676922842681371</v>
+        <v>0.02132499562586832</v>
       </c>
       <c r="C4">
-        <v>-0.08611593909026999</v>
+        <v>-0.1201535589235459</v>
       </c>
       <c r="D4">
-        <v>-0.07145576069176755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0658135868704665</v>
+      </c>
+      <c r="E4">
+        <v>-0.09266831797821681</v>
+      </c>
+      <c r="F4">
+        <v>0.1001969337995177</v>
+      </c>
+      <c r="G4">
+        <v>-0.01261349673988258</v>
+      </c>
+      <c r="H4">
+        <v>0.06781899882110949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03025988766623201</v>
+        <v>0.03518909745322726</v>
       </c>
       <c r="C6">
-        <v>-0.02212812208185005</v>
+        <v>-0.04180069455775846</v>
       </c>
       <c r="D6">
-        <v>-0.08349859558462827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05704148435543435</v>
+      </c>
+      <c r="E6">
+        <v>-0.1130735628787921</v>
+      </c>
+      <c r="F6">
+        <v>0.05826864467284162</v>
+      </c>
+      <c r="G6">
+        <v>0.001984558619814491</v>
+      </c>
+      <c r="H6">
+        <v>-0.03389966573576646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.001900836108311906</v>
+        <v>0.006758135576189996</v>
       </c>
       <c r="C7">
-        <v>-0.03114336966413474</v>
+        <v>-0.04512915845713825</v>
       </c>
       <c r="D7">
-        <v>-0.07089408805588682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03832946206021252</v>
+      </c>
+      <c r="E7">
+        <v>-0.09572300990613897</v>
+      </c>
+      <c r="F7">
+        <v>0.02048582314887711</v>
+      </c>
+      <c r="G7">
+        <v>-0.01111189565876058</v>
+      </c>
+      <c r="H7">
+        <v>0.02391890632510371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003374586797800768</v>
+        <v>-0.004397583554317874</v>
       </c>
       <c r="C8">
-        <v>-0.03224519179378878</v>
+        <v>-0.04543232140170567</v>
       </c>
       <c r="D8">
-        <v>-0.06505194606487007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02490163525701841</v>
+      </c>
+      <c r="E8">
+        <v>-0.07314035909941083</v>
+      </c>
+      <c r="F8">
+        <v>0.06598530662522895</v>
+      </c>
+      <c r="G8">
+        <v>0.05483500316385857</v>
+      </c>
+      <c r="H8">
+        <v>0.05886122704941137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03291934845601265</v>
+        <v>0.0136600763679493</v>
       </c>
       <c r="C9">
-        <v>-0.07672416596931671</v>
+        <v>-0.09928249640858552</v>
       </c>
       <c r="D9">
-        <v>-0.0791765484174726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05860539433523396</v>
+      </c>
+      <c r="E9">
+        <v>-0.08175606248631984</v>
+      </c>
+      <c r="F9">
+        <v>0.07311924079605427</v>
+      </c>
+      <c r="G9">
+        <v>-0.008901544471042109</v>
+      </c>
+      <c r="H9">
+        <v>0.01514543115508014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2018721836298322</v>
+        <v>0.2425471868016403</v>
       </c>
       <c r="C10">
-        <v>0.1453633527336537</v>
+        <v>0.08721868724040313</v>
       </c>
       <c r="D10">
-        <v>0.04823373239899829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008916137969243679</v>
+      </c>
+      <c r="E10">
+        <v>0.02553537918236415</v>
+      </c>
+      <c r="F10">
+        <v>0.03188939447400574</v>
+      </c>
+      <c r="G10">
+        <v>-0.008530611485958758</v>
+      </c>
+      <c r="H10">
+        <v>0.001855420884698587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01051797945590458</v>
+        <v>0.009754898550185923</v>
       </c>
       <c r="C11">
-        <v>-0.04028608851209324</v>
+        <v>-0.06083395109502686</v>
       </c>
       <c r="D11">
-        <v>-0.04131323877595459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02098831002954727</v>
+      </c>
+      <c r="E11">
+        <v>-0.0570654384971609</v>
+      </c>
+      <c r="F11">
+        <v>0.005543194531799733</v>
+      </c>
+      <c r="G11">
+        <v>-0.01149905118533653</v>
+      </c>
+      <c r="H11">
+        <v>0.008011371995740075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009827656356293388</v>
+        <v>0.01001595920730082</v>
       </c>
       <c r="C12">
-        <v>-0.04217375531362183</v>
+        <v>-0.05137744682078802</v>
       </c>
       <c r="D12">
-        <v>-0.04902683879013792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02766099042191717</v>
+      </c>
+      <c r="E12">
+        <v>-0.04952338432167265</v>
+      </c>
+      <c r="F12">
+        <v>0.002889455387672064</v>
+      </c>
+      <c r="G12">
+        <v>-0.001789828489802312</v>
+      </c>
+      <c r="H12">
+        <v>-0.02337126183563595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01588896469664974</v>
+        <v>0.003881678909781112</v>
       </c>
       <c r="C13">
-        <v>-0.03709636024511211</v>
+        <v>-0.0722826507572947</v>
       </c>
       <c r="D13">
-        <v>-0.111992441993342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.09625204224864892</v>
+      </c>
+      <c r="E13">
+        <v>-0.1186551946360774</v>
+      </c>
+      <c r="F13">
+        <v>0.03805574081991239</v>
+      </c>
+      <c r="G13">
+        <v>0.0561780405997587</v>
+      </c>
+      <c r="H13">
+        <v>-0.07151228105505444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.008076050497368491</v>
+        <v>0.003126418062554199</v>
       </c>
       <c r="C14">
-        <v>-0.01858648868009138</v>
+        <v>-0.03786901077794594</v>
       </c>
       <c r="D14">
-        <v>-0.05793617325565767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03412885038762491</v>
+      </c>
+      <c r="E14">
+        <v>-0.1122059398958888</v>
+      </c>
+      <c r="F14">
+        <v>0.04483968775612916</v>
+      </c>
+      <c r="G14">
+        <v>0.02340177926605142</v>
+      </c>
+      <c r="H14">
+        <v>-0.03715272510118162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002126859570291287</v>
+        <v>-0.004671096845580247</v>
       </c>
       <c r="C15">
-        <v>-0.01221753634930169</v>
+        <v>-0.03456103482484647</v>
       </c>
       <c r="D15">
-        <v>-0.05094451692267571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04092411805775261</v>
+      </c>
+      <c r="E15">
+        <v>-0.06498187067130146</v>
+      </c>
+      <c r="F15">
+        <v>0.01586106782437205</v>
+      </c>
+      <c r="G15">
+        <v>0.01633040871375749</v>
+      </c>
+      <c r="H15">
+        <v>0.009406876242267027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01019955006633883</v>
+        <v>0.009346328606750743</v>
       </c>
       <c r="C16">
-        <v>-0.03943926659735759</v>
+        <v>-0.05319011453273456</v>
       </c>
       <c r="D16">
-        <v>-0.04484189104802797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0237695227650384</v>
+      </c>
+      <c r="E16">
+        <v>-0.05321407752086511</v>
+      </c>
+      <c r="F16">
+        <v>0.003326924113378847</v>
+      </c>
+      <c r="G16">
+        <v>-0.02361767811721292</v>
+      </c>
+      <c r="H16">
+        <v>-0.006202177908648398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004292471062526684</v>
+        <v>0.0003953307582650686</v>
       </c>
       <c r="C19">
-        <v>-0.01925108687214077</v>
+        <v>-0.01559243023006007</v>
       </c>
       <c r="D19">
-        <v>-0.04460669994698001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02106415751367108</v>
+      </c>
+      <c r="E19">
+        <v>-0.01014022661487616</v>
+      </c>
+      <c r="F19">
+        <v>0.006896763684434377</v>
+      </c>
+      <c r="G19">
+        <v>0.03067670295244919</v>
+      </c>
+      <c r="H19">
+        <v>-0.002882736515923174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001563855306060198</v>
+        <v>0.003539887436672033</v>
       </c>
       <c r="C20">
-        <v>-0.03109892030950766</v>
+        <v>-0.0527465390287389</v>
       </c>
       <c r="D20">
-        <v>-0.05180442193272702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04455299950675912</v>
+      </c>
+      <c r="E20">
+        <v>-0.07359300847818681</v>
+      </c>
+      <c r="F20">
+        <v>0.02522856469519495</v>
+      </c>
+      <c r="G20">
+        <v>-0.0259916156308525</v>
+      </c>
+      <c r="H20">
+        <v>0.01052928465695544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007356428307563558</v>
+        <v>0.003938521558591156</v>
       </c>
       <c r="C21">
-        <v>-0.04052809639771474</v>
+        <v>-0.05599426744577495</v>
       </c>
       <c r="D21">
-        <v>-0.08008703879872567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06187787886866696</v>
+      </c>
+      <c r="E21">
+        <v>-0.09154976957823269</v>
+      </c>
+      <c r="F21">
+        <v>0.1001307250267609</v>
+      </c>
+      <c r="G21">
+        <v>0.0928515632966959</v>
+      </c>
+      <c r="H21">
+        <v>-0.07449941524769542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004255000806126209</v>
+        <v>-0.01013295076991809</v>
       </c>
       <c r="C22">
-        <v>-0.06126753748247668</v>
+        <v>-0.08955612927452439</v>
       </c>
       <c r="D22">
-        <v>-0.1910896583477593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1689526534568085</v>
+      </c>
+      <c r="E22">
+        <v>-0.1583832647699438</v>
+      </c>
+      <c r="F22">
+        <v>0.09253056671491662</v>
+      </c>
+      <c r="G22">
+        <v>0.1730047839399367</v>
+      </c>
+      <c r="H22">
+        <v>0.2235189605224992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004234883628218744</v>
+        <v>-0.00709116421695613</v>
       </c>
       <c r="C23">
-        <v>-0.06221172692675658</v>
+        <v>-0.09170410867390197</v>
       </c>
       <c r="D23">
-        <v>-0.1901542100241638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1726445308585206</v>
+      </c>
+      <c r="E23">
+        <v>-0.1562120150160199</v>
+      </c>
+      <c r="F23">
+        <v>0.09489522984366955</v>
+      </c>
+      <c r="G23">
+        <v>0.169435037711166</v>
+      </c>
+      <c r="H23">
+        <v>0.2142807617067587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01616813772347358</v>
+        <v>0.01080787854364754</v>
       </c>
       <c r="C24">
-        <v>-0.06048301728680419</v>
+        <v>-0.07068389676521167</v>
       </c>
       <c r="D24">
-        <v>-0.0557904835700077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01863623161515526</v>
+      </c>
+      <c r="E24">
+        <v>-0.06235880364906683</v>
+      </c>
+      <c r="F24">
+        <v>0.005952363923363103</v>
+      </c>
+      <c r="G24">
+        <v>-0.001338352849517</v>
+      </c>
+      <c r="H24">
+        <v>0.001742716983017578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01612658552389558</v>
+        <v>0.01448084119723631</v>
       </c>
       <c r="C25">
-        <v>-0.05203435294323262</v>
+        <v>-0.06484152853433474</v>
       </c>
       <c r="D25">
-        <v>-0.04307554542507803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02487121690408461</v>
+      </c>
+      <c r="E25">
+        <v>-0.04604703960758676</v>
+      </c>
+      <c r="F25">
+        <v>0.008197113747232537</v>
+      </c>
+      <c r="G25">
+        <v>-0.01416556205847283</v>
+      </c>
+      <c r="H25">
+        <v>0.001110301236040565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008327039414983183</v>
+        <v>0.01624210484845883</v>
       </c>
       <c r="C26">
-        <v>-0.01901317233306775</v>
+        <v>-0.03847755104735143</v>
       </c>
       <c r="D26">
-        <v>-0.04764289393292538</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01534699910505797</v>
+      </c>
+      <c r="E26">
+        <v>-0.08386368457876822</v>
+      </c>
+      <c r="F26">
+        <v>0.05679436936793855</v>
+      </c>
+      <c r="G26">
+        <v>0.02294963180750693</v>
+      </c>
+      <c r="H26">
+        <v>0.005179946348418064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2814488166529683</v>
+        <v>0.3119663858433862</v>
       </c>
       <c r="C28">
-        <v>0.1620038257926202</v>
+        <v>0.09570212937745182</v>
       </c>
       <c r="D28">
-        <v>0.01478411153293371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006594666341322756</v>
+      </c>
+      <c r="E28">
+        <v>0.05243832589598015</v>
+      </c>
+      <c r="F28">
+        <v>0.0570624724641371</v>
+      </c>
+      <c r="G28">
+        <v>0.05234937854649157</v>
+      </c>
+      <c r="H28">
+        <v>0.06177687837701587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001173175626552128</v>
+        <v>0.00293758850717524</v>
       </c>
       <c r="C29">
-        <v>-0.02239628052501107</v>
+        <v>-0.04393040638413</v>
       </c>
       <c r="D29">
-        <v>-0.06124353075439089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03849561264735726</v>
+      </c>
+      <c r="E29">
+        <v>-0.1234744946512865</v>
+      </c>
+      <c r="F29">
+        <v>0.0490207524829687</v>
+      </c>
+      <c r="G29">
+        <v>0.01387818376876955</v>
+      </c>
+      <c r="H29">
+        <v>-0.05241610223054041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02600337728728443</v>
+        <v>0.01714533622131831</v>
       </c>
       <c r="C30">
-        <v>-0.07857619896600264</v>
+        <v>-0.1049674986913075</v>
       </c>
       <c r="D30">
-        <v>-0.1332627875534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07049187356688259</v>
+      </c>
+      <c r="E30">
+        <v>-0.1400932037918963</v>
+      </c>
+      <c r="F30">
+        <v>0.03242259715165573</v>
+      </c>
+      <c r="G30">
+        <v>-0.007644742545531097</v>
+      </c>
+      <c r="H30">
+        <v>0.02083679687563189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03010346379072388</v>
+        <v>0.01066338375157588</v>
       </c>
       <c r="C31">
-        <v>-0.09086178352185596</v>
+        <v>-0.09928018199231181</v>
       </c>
       <c r="D31">
-        <v>-0.040561310639528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009376687703061728</v>
+      </c>
+      <c r="E31">
+        <v>-0.02980938710036284</v>
+      </c>
+      <c r="F31">
+        <v>0.01581727534892304</v>
+      </c>
+      <c r="G31">
+        <v>0.02247113858471641</v>
+      </c>
+      <c r="H31">
+        <v>0.0133724745125599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01820347256025428</v>
+        <v>0.01328365265388791</v>
       </c>
       <c r="C32">
-        <v>-0.04221600892682974</v>
+        <v>-0.05588238851743992</v>
       </c>
       <c r="D32">
-        <v>-0.07814473896507794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07240352371162879</v>
+      </c>
+      <c r="E32">
+        <v>-0.04055824454757724</v>
+      </c>
+      <c r="F32">
+        <v>0.07186961044546426</v>
+      </c>
+      <c r="G32">
+        <v>0.04801581555457357</v>
+      </c>
+      <c r="H32">
+        <v>-0.0109777981308282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006011429949392124</v>
+        <v>0.007981057738709309</v>
       </c>
       <c r="C33">
-        <v>-0.04643324675809887</v>
+        <v>-0.07159790944610755</v>
       </c>
       <c r="D33">
-        <v>-0.08007593700193001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06312216045566905</v>
+      </c>
+      <c r="E33">
+        <v>-0.09718313458044399</v>
+      </c>
+      <c r="F33">
+        <v>0.04353404500985274</v>
+      </c>
+      <c r="G33">
+        <v>0.006624039730079909</v>
+      </c>
+      <c r="H33">
+        <v>-0.004133109937848253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01095881546272297</v>
+        <v>0.00900466488667471</v>
       </c>
       <c r="C34">
-        <v>-0.05997906968213437</v>
+        <v>-0.06176359101234481</v>
       </c>
       <c r="D34">
-        <v>-0.05967737273040063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01136381044849732</v>
+      </c>
+      <c r="E34">
+        <v>-0.04733185646877615</v>
+      </c>
+      <c r="F34">
+        <v>-0.02531122303768674</v>
+      </c>
+      <c r="G34">
+        <v>0.005851636900847115</v>
+      </c>
+      <c r="H34">
+        <v>-0.009306578176216997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0005030154351317572</v>
+        <v>0.004269754341031843</v>
       </c>
       <c r="C35">
-        <v>-0.0005730471541017404</v>
+        <v>-0.01783901697774654</v>
       </c>
       <c r="D35">
-        <v>-0.003804788556221825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02111517371576187</v>
+      </c>
+      <c r="E35">
+        <v>-0.03592336361015046</v>
+      </c>
+      <c r="F35">
+        <v>0.02767714929933252</v>
+      </c>
+      <c r="G35">
+        <v>-0.003819057169547307</v>
+      </c>
+      <c r="H35">
+        <v>-0.01745726908933026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006253609264798784</v>
+        <v>0.0103608420714136</v>
       </c>
       <c r="C36">
-        <v>-0.01918201356358489</v>
+        <v>-0.03206225483619072</v>
       </c>
       <c r="D36">
-        <v>-0.0399895966736467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02495740454783862</v>
+      </c>
+      <c r="E36">
+        <v>-0.06902138724795547</v>
+      </c>
+      <c r="F36">
+        <v>0.05000383613960855</v>
+      </c>
+      <c r="G36">
+        <v>0.01379149516931385</v>
+      </c>
+      <c r="H36">
+        <v>-6.289840087272196e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002494343327364559</v>
+        <v>0.006482443463453852</v>
       </c>
       <c r="C38">
-        <v>-0.01465019402754644</v>
+        <v>-0.03399329387661966</v>
       </c>
       <c r="D38">
-        <v>-0.06830645003456924</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05114089650443179</v>
+      </c>
+      <c r="E38">
+        <v>-0.07498515168649576</v>
+      </c>
+      <c r="F38">
+        <v>0.01568017279525937</v>
+      </c>
+      <c r="G38">
+        <v>0.01385900428267483</v>
+      </c>
+      <c r="H38">
+        <v>0.0480529673997608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01603306904664378</v>
+        <v>0.008848760579082923</v>
       </c>
       <c r="C39">
-        <v>-0.06621141076575229</v>
+        <v>-0.09629714014274357</v>
       </c>
       <c r="D39">
-        <v>-0.09652366109530393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03371582793066713</v>
+      </c>
+      <c r="E39">
+        <v>-0.1181878188946609</v>
+      </c>
+      <c r="F39">
+        <v>0.001597412927867784</v>
+      </c>
+      <c r="G39">
+        <v>-0.00769717968209368</v>
+      </c>
+      <c r="H39">
+        <v>-0.02076792612229259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01463915023604908</v>
+        <v>0.01334518239674291</v>
       </c>
       <c r="C40">
-        <v>-0.03059128071708653</v>
+        <v>-0.04688771141855543</v>
       </c>
       <c r="D40">
-        <v>-0.1050540717497565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05141624695323755</v>
+      </c>
+      <c r="E40">
+        <v>-0.09683574016246345</v>
+      </c>
+      <c r="F40">
+        <v>-0.01706511350580311</v>
+      </c>
+      <c r="G40">
+        <v>0.0693084087917922</v>
+      </c>
+      <c r="H40">
+        <v>-0.005737511715202997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007262305925388027</v>
+        <v>0.01587458198955952</v>
       </c>
       <c r="C41">
-        <v>-0.01413823079254594</v>
+        <v>-0.0308488045531907</v>
       </c>
       <c r="D41">
-        <v>-0.01887963233670487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02193728790297532</v>
+      </c>
+      <c r="E41">
+        <v>-0.02791958592829876</v>
+      </c>
+      <c r="F41">
+        <v>0.01587671889643623</v>
+      </c>
+      <c r="G41">
+        <v>-3.32269608780374e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.005503636331855909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00449067512152828</v>
+        <v>0.007728776148679284</v>
       </c>
       <c r="C43">
-        <v>-0.008014463934557526</v>
+        <v>-0.02274279844923233</v>
       </c>
       <c r="D43">
-        <v>-0.03437585818781418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02926347014262118</v>
+      </c>
+      <c r="E43">
+        <v>-0.04406869902376188</v>
+      </c>
+      <c r="F43">
+        <v>0.023524746400118</v>
+      </c>
+      <c r="G43">
+        <v>-0.003803751724163163</v>
+      </c>
+      <c r="H43">
+        <v>0.01229719719616654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01744447472463901</v>
+        <v>0.008512420838988181</v>
       </c>
       <c r="C44">
-        <v>-0.03638695533934239</v>
+        <v>-0.05803448692664039</v>
       </c>
       <c r="D44">
-        <v>-0.0803435452890867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05567611425227562</v>
+      </c>
+      <c r="E44">
+        <v>-0.1081724589598095</v>
+      </c>
+      <c r="F44">
+        <v>0.04939246796801471</v>
+      </c>
+      <c r="G44">
+        <v>0.02146047662035428</v>
+      </c>
+      <c r="H44">
+        <v>0.02425318600209516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002715254756625296</v>
+        <v>8.151828791213203e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03461755629073145</v>
+        <v>-0.04695328022692669</v>
       </c>
       <c r="D46">
-        <v>-0.06295324552243853</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02272531042729327</v>
+      </c>
+      <c r="E46">
+        <v>-0.09314815501638528</v>
+      </c>
+      <c r="F46">
+        <v>0.04221993662752495</v>
+      </c>
+      <c r="G46">
+        <v>0.0210250575979801</v>
+      </c>
+      <c r="H46">
+        <v>-0.007644809815468867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06400714582127263</v>
+        <v>0.03018475727734212</v>
       </c>
       <c r="C47">
-        <v>-0.1157424335883521</v>
+        <v>-0.1240349117112425</v>
       </c>
       <c r="D47">
-        <v>-0.04816817773753328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01360782420404685</v>
+      </c>
+      <c r="E47">
+        <v>-0.006214564137691832</v>
+      </c>
+      <c r="F47">
+        <v>0.004118247143225872</v>
+      </c>
+      <c r="G47">
+        <v>0.003739950360493606</v>
+      </c>
+      <c r="H47">
+        <v>0.02339716095316881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005716670932246911</v>
+        <v>0.01255002350170813</v>
       </c>
       <c r="C48">
-        <v>-0.02204245559039748</v>
+        <v>-0.03844694903509344</v>
       </c>
       <c r="D48">
-        <v>-0.04413900051095707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03247273851410658</v>
+      </c>
+      <c r="E48">
+        <v>-0.07479132621375997</v>
+      </c>
+      <c r="F48">
+        <v>0.06856090783172074</v>
+      </c>
+      <c r="G48">
+        <v>0.01904216324717924</v>
+      </c>
+      <c r="H48">
+        <v>0.01197447004385229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00280897084556876</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005684395808244288</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003116249010885337</v>
+      </c>
+      <c r="E49">
+        <v>-0.001444223801398757</v>
+      </c>
+      <c r="F49">
+        <v>-0.009828420907323233</v>
+      </c>
+      <c r="G49">
+        <v>-0.01114843082618416</v>
+      </c>
+      <c r="H49">
+        <v>-0.01552320964658757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03040400861704129</v>
+        <v>0.01402701105600345</v>
       </c>
       <c r="C50">
-        <v>-0.06354949789618981</v>
+        <v>-0.07960402762928742</v>
       </c>
       <c r="D50">
-        <v>-0.05950597875542712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02595645868600921</v>
+      </c>
+      <c r="E50">
+        <v>-0.04191276719337513</v>
+      </c>
+      <c r="F50">
+        <v>0.01253027197402081</v>
+      </c>
+      <c r="G50">
+        <v>0.01496692956893313</v>
+      </c>
+      <c r="H50">
+        <v>0.02943324671321329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006914587743011795</v>
+        <v>-0.004753075182924658</v>
       </c>
       <c r="C51">
-        <v>-0.009306331695515615</v>
+        <v>-0.02286669453410088</v>
       </c>
       <c r="D51">
-        <v>-0.05087604208722595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0114782450840057</v>
+      </c>
+      <c r="E51">
+        <v>-0.06424459236372577</v>
+      </c>
+      <c r="F51">
+        <v>0.03711848020517416</v>
+      </c>
+      <c r="G51">
+        <v>0.03240069917197234</v>
+      </c>
+      <c r="H51">
+        <v>0.001026717468019761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09793168685759918</v>
+        <v>0.06085169019193998</v>
       </c>
       <c r="C53">
-        <v>-0.1374756592785416</v>
+        <v>-0.1610643630096404</v>
       </c>
       <c r="D53">
-        <v>0.008183011539143333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01648268097326151</v>
+      </c>
+      <c r="E53">
+        <v>0.03497006367650757</v>
+      </c>
+      <c r="F53">
+        <v>0.03745035417860235</v>
+      </c>
+      <c r="G53">
+        <v>0.01131042659767325</v>
+      </c>
+      <c r="H53">
+        <v>0.01214904687406066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005987047503589563</v>
+        <v>0.0109060603434128</v>
       </c>
       <c r="C54">
-        <v>-0.02699513463462332</v>
+        <v>-0.04506977960074134</v>
       </c>
       <c r="D54">
-        <v>-0.0815698387897532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05242070146217579</v>
+      </c>
+      <c r="E54">
+        <v>-0.07509947032445154</v>
+      </c>
+      <c r="F54">
+        <v>0.02530126244315513</v>
+      </c>
+      <c r="G54">
+        <v>0.01546426465368438</v>
+      </c>
+      <c r="H54">
+        <v>0.02105459745674719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08136301923915314</v>
+        <v>0.04165849061909842</v>
       </c>
       <c r="C55">
-        <v>-0.1166121839733154</v>
+        <v>-0.1268000417757117</v>
       </c>
       <c r="D55">
-        <v>0.001655674138644959</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05025508998100933</v>
+      </c>
+      <c r="E55">
+        <v>0.02596878922905526</v>
+      </c>
+      <c r="F55">
+        <v>-0.006292428565327877</v>
+      </c>
+      <c r="G55">
+        <v>0.03197459271912726</v>
+      </c>
+      <c r="H55">
+        <v>0.01541013489909864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1201299156484305</v>
+        <v>0.06259744530804602</v>
       </c>
       <c r="C56">
-        <v>-0.1649155259204751</v>
+        <v>-0.189289463121466</v>
       </c>
       <c r="D56">
-        <v>-0.02052134130041249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03867290906120638</v>
+      </c>
+      <c r="E56">
+        <v>0.0513658913908712</v>
+      </c>
+      <c r="F56">
+        <v>-0.01008868007429662</v>
+      </c>
+      <c r="G56">
+        <v>0.07622584720942324</v>
+      </c>
+      <c r="H56">
+        <v>0.03852512258221678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01308894579332483</v>
+        <v>0.009199151446965046</v>
       </c>
       <c r="C58">
-        <v>-0.03508389810314805</v>
+        <v>-0.0839507933114024</v>
       </c>
       <c r="D58">
-        <v>-0.1678113077976024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1791055818669549</v>
+      </c>
+      <c r="E58">
+        <v>-0.1610750266401124</v>
+      </c>
+      <c r="F58">
+        <v>0.1584179037462874</v>
+      </c>
+      <c r="G58">
+        <v>0.1174973994135673</v>
+      </c>
+      <c r="H58">
+        <v>0.138752308183867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2112769596481108</v>
+        <v>0.261636580325247</v>
       </c>
       <c r="C59">
-        <v>0.1152910774750252</v>
+        <v>0.05542899770211143</v>
       </c>
       <c r="D59">
-        <v>-0.04357956378529795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04306342878431952</v>
+      </c>
+      <c r="E59">
+        <v>-0.005661505246861646</v>
+      </c>
+      <c r="F59">
+        <v>0.0256642954323908</v>
+      </c>
+      <c r="G59">
+        <v>0.04272326136734087</v>
+      </c>
+      <c r="H59">
+        <v>-0.02204423318123933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1631475767167939</v>
+        <v>0.1523429673674643</v>
       </c>
       <c r="C60">
-        <v>-0.116381225489724</v>
+        <v>-0.1617397577235487</v>
       </c>
       <c r="D60">
-        <v>-0.122389676033652</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01763107639808547</v>
+      </c>
+      <c r="E60">
+        <v>-0.1110019938168595</v>
+      </c>
+      <c r="F60">
+        <v>-0.1850646585237188</v>
+      </c>
+      <c r="G60">
+        <v>-0.1874984788986562</v>
+      </c>
+      <c r="H60">
+        <v>-0.2055215205965023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01890816784330228</v>
+        <v>0.01420382372845069</v>
       </c>
       <c r="C61">
-        <v>-0.05777967440186379</v>
+        <v>-0.08127319005845211</v>
       </c>
       <c r="D61">
-        <v>-0.06819974679068705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02819807226203321</v>
+      </c>
+      <c r="E61">
+        <v>-0.08086631571106784</v>
+      </c>
+      <c r="F61">
+        <v>0.003590983697048153</v>
+      </c>
+      <c r="G61">
+        <v>-0.002506824260054348</v>
+      </c>
+      <c r="H61">
+        <v>-0.00695696234764587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002625229079551376</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-5.66387241073343e-05</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.000305315501043342</v>
+      </c>
+      <c r="E62">
+        <v>-0.0006293111665937522</v>
+      </c>
+      <c r="F62">
+        <v>0.001238707505523467</v>
+      </c>
+      <c r="G62">
+        <v>0.0008369794923658258</v>
+      </c>
+      <c r="H62">
+        <v>0.00143216726322758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.008239768602546549</v>
+        <v>0.01582421518118832</v>
       </c>
       <c r="C63">
-        <v>-0.03273469696377567</v>
+        <v>-0.05164397993067193</v>
       </c>
       <c r="D63">
-        <v>-0.06283648912776428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01352447663923381</v>
+      </c>
+      <c r="E63">
+        <v>-0.09496911567757421</v>
+      </c>
+      <c r="F63">
+        <v>0.02659042244568415</v>
+      </c>
+      <c r="G63">
+        <v>-0.003296287507454721</v>
+      </c>
+      <c r="H63">
+        <v>-0.00330180752309848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04204894923856802</v>
+        <v>0.0153058576492731</v>
       </c>
       <c r="C64">
-        <v>-0.096667221063722</v>
+        <v>-0.1020929827219947</v>
       </c>
       <c r="D64">
-        <v>-0.01451486708363905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.001402619575087411</v>
+      </c>
+      <c r="E64">
+        <v>-0.03022122262926207</v>
+      </c>
+      <c r="F64">
+        <v>0.02734580324357529</v>
+      </c>
+      <c r="G64">
+        <v>-0.0337737687508922</v>
+      </c>
+      <c r="H64">
+        <v>0.01387422510537579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02610811530844868</v>
+        <v>0.02756611859990101</v>
       </c>
       <c r="C65">
-        <v>-0.01998398556860328</v>
+        <v>-0.04942882065865314</v>
       </c>
       <c r="D65">
-        <v>-0.0854019745788417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07097740611552621</v>
+      </c>
+      <c r="E65">
+        <v>-0.1030521157285241</v>
+      </c>
+      <c r="F65">
+        <v>0.001355879169737998</v>
+      </c>
+      <c r="G65">
+        <v>-0.0647478164471383</v>
+      </c>
+      <c r="H65">
+        <v>-0.01980780000397494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02155759510428911</v>
+        <v>0.009471186505451774</v>
       </c>
       <c r="C66">
-        <v>-0.07932032423003503</v>
+        <v>-0.1163916349838297</v>
       </c>
       <c r="D66">
-        <v>-0.1182080002440705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06547620571802842</v>
+      </c>
+      <c r="E66">
+        <v>-0.1184589302892617</v>
+      </c>
+      <c r="F66">
+        <v>0.00265756385899278</v>
+      </c>
+      <c r="G66">
+        <v>0.008367694538843409</v>
+      </c>
+      <c r="H66">
+        <v>0.002667974562485305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01433972174095077</v>
+        <v>0.01558153875489723</v>
       </c>
       <c r="C67">
-        <v>-0.02143230227421604</v>
+        <v>-0.03757655975889948</v>
       </c>
       <c r="D67">
-        <v>-0.03929197390963422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02342761875426368</v>
+      </c>
+      <c r="E67">
+        <v>-0.05148153451730404</v>
+      </c>
+      <c r="F67">
+        <v>-0.01557522908131424</v>
+      </c>
+      <c r="G67">
+        <v>-0.001981044813350416</v>
+      </c>
+      <c r="H67">
+        <v>0.03254434480947453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2233777894764429</v>
+        <v>0.2791358107213858</v>
       </c>
       <c r="C68">
-        <v>0.1279391734703066</v>
+        <v>0.06801167412537094</v>
       </c>
       <c r="D68">
-        <v>-0.0250244637483694</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03427648880068051</v>
+      </c>
+      <c r="E68">
+        <v>-0.02538041208092161</v>
+      </c>
+      <c r="F68">
+        <v>0.03126706022082831</v>
+      </c>
+      <c r="G68">
+        <v>0.03404716459934593</v>
+      </c>
+      <c r="H68">
+        <v>0.024014999052212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04640883169467572</v>
+        <v>0.01413483276664666</v>
       </c>
       <c r="C69">
-        <v>-0.1201386809779943</v>
+        <v>-0.1115161666879277</v>
       </c>
       <c r="D69">
-        <v>-0.0622663276379322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009519488523614988</v>
+      </c>
+      <c r="E69">
+        <v>-0.01674394310078564</v>
+      </c>
+      <c r="F69">
+        <v>-0.005925157638567724</v>
+      </c>
+      <c r="G69">
+        <v>0.009543097372287753</v>
+      </c>
+      <c r="H69">
+        <v>-0.0007138513883834537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2364291961688837</v>
+        <v>0.2687606924543524</v>
       </c>
       <c r="C71">
-        <v>0.148030444659356</v>
+        <v>0.08250321783769511</v>
       </c>
       <c r="D71">
-        <v>-0.01573745450656443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01271375642586073</v>
+      </c>
+      <c r="E71">
+        <v>-0.004459115084465098</v>
+      </c>
+      <c r="F71">
+        <v>0.01807271248375867</v>
+      </c>
+      <c r="G71">
+        <v>0.03788613784145921</v>
+      </c>
+      <c r="H71">
+        <v>0.04117171328230115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09471206888962584</v>
+        <v>0.06599509782954333</v>
       </c>
       <c r="C72">
-        <v>-0.0889935084498152</v>
+        <v>-0.1264206323178876</v>
       </c>
       <c r="D72">
-        <v>-0.0864458384284303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01699696093744427</v>
+      </c>
+      <c r="E72">
+        <v>-0.08372788863172415</v>
+      </c>
+      <c r="F72">
+        <v>-0.01751725237489834</v>
+      </c>
+      <c r="G72">
+        <v>-0.04486093041521968</v>
+      </c>
+      <c r="H72">
+        <v>-0.02102285284095253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1681181567267942</v>
+        <v>0.1592351301732396</v>
       </c>
       <c r="C73">
-        <v>-0.09185933375422985</v>
+        <v>-0.1686135717152254</v>
       </c>
       <c r="D73">
-        <v>-0.1777062252333028</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02029552600180557</v>
+      </c>
+      <c r="E73">
+        <v>-0.2489118985395346</v>
+      </c>
+      <c r="F73">
+        <v>-0.3149479142862912</v>
+      </c>
+      <c r="G73">
+        <v>-0.3366170997939085</v>
+      </c>
+      <c r="H73">
+        <v>-0.2642039704085907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09191246587702911</v>
+        <v>0.0514590406417984</v>
       </c>
       <c r="C74">
-        <v>-0.1224523490510555</v>
+        <v>-0.1373518461669664</v>
       </c>
       <c r="D74">
-        <v>0.05592915799852163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04033307725521432</v>
+      </c>
+      <c r="E74">
+        <v>0.05157730223734493</v>
+      </c>
+      <c r="F74">
+        <v>0.03378469526344937</v>
+      </c>
+      <c r="G74">
+        <v>0.01218486610654165</v>
+      </c>
+      <c r="H74">
+        <v>0.01612023960976046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1992602287492086</v>
+        <v>0.09931604354564047</v>
       </c>
       <c r="C75">
-        <v>-0.221563509279452</v>
+        <v>-0.2538883375036658</v>
       </c>
       <c r="D75">
-        <v>0.0288838160473503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.07923899040997846</v>
+      </c>
+      <c r="E75">
+        <v>0.1500858513066971</v>
+      </c>
+      <c r="F75">
+        <v>-0.07756596542834865</v>
+      </c>
+      <c r="G75">
+        <v>0.09466143375032193</v>
+      </c>
+      <c r="H75">
+        <v>0.146813362642932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1219657201175037</v>
+        <v>0.06147723544529486</v>
       </c>
       <c r="C76">
-        <v>-0.1539629467471607</v>
+        <v>-0.1782037334148719</v>
       </c>
       <c r="D76">
-        <v>-0.008761119772754539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04185738721183133</v>
+      </c>
+      <c r="E76">
+        <v>0.05401587711058633</v>
+      </c>
+      <c r="F76">
+        <v>-0.02456118691151673</v>
+      </c>
+      <c r="G76">
+        <v>0.05082489896959219</v>
+      </c>
+      <c r="H76">
+        <v>0.02392127059453339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004560057414084135</v>
+        <v>0.002338152964266231</v>
       </c>
       <c r="C77">
-        <v>-0.08747205835859079</v>
+        <v>-0.1280897669495095</v>
       </c>
       <c r="D77">
-        <v>-0.2145725892207222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7912042995935511</v>
+      </c>
+      <c r="E77">
+        <v>0.5130233385594638</v>
+      </c>
+      <c r="F77">
+        <v>-0.1144395413318196</v>
+      </c>
+      <c r="G77">
+        <v>-0.1700529515303397</v>
+      </c>
+      <c r="H77">
+        <v>-0.04644960186337167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03593474741169634</v>
+        <v>0.02555467355219545</v>
       </c>
       <c r="C78">
-        <v>-0.08013418970228292</v>
+        <v>-0.1003590344741326</v>
       </c>
       <c r="D78">
-        <v>-0.1327598046687902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0367075499259529</v>
+      </c>
+      <c r="E78">
+        <v>-0.1058054980900814</v>
+      </c>
+      <c r="F78">
+        <v>0.046863936784653</v>
+      </c>
+      <c r="G78">
+        <v>0.08727196591839725</v>
+      </c>
+      <c r="H78">
+        <v>-0.008904337972894567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1050779105336681</v>
+        <v>0.05460215755105259</v>
       </c>
       <c r="C79">
-        <v>-0.2378544189388563</v>
+        <v>-0.2244072808837103</v>
       </c>
       <c r="D79">
-        <v>0.6853101961801801</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1773992806449762</v>
+      </c>
+      <c r="E79">
+        <v>0.2197667113246476</v>
+      </c>
+      <c r="F79">
+        <v>0.7339577396182695</v>
+      </c>
+      <c r="G79">
+        <v>-0.4487815286994906</v>
+      </c>
+      <c r="H79">
+        <v>-0.1555417207107229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.005547396148328257</v>
+        <v>0.009372126487145574</v>
       </c>
       <c r="C80">
-        <v>-0.04582222042851163</v>
+        <v>-0.04701599947784222</v>
       </c>
       <c r="D80">
-        <v>-0.02419581009227617</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.008492253835904396</v>
+      </c>
+      <c r="E80">
+        <v>-0.05988900135606795</v>
+      </c>
+      <c r="F80">
+        <v>-0.006540497074888791</v>
+      </c>
+      <c r="G80">
+        <v>0.02699853076505423</v>
+      </c>
+      <c r="H80">
+        <v>-0.06858697405615213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09081654401195798</v>
+        <v>0.03250546685851038</v>
       </c>
       <c r="C81">
-        <v>-0.1415898969405805</v>
+        <v>-0.1555966028332787</v>
       </c>
       <c r="D81">
-        <v>0.06841813385126173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0521302200369315</v>
+      </c>
+      <c r="E81">
+        <v>0.0798993793841178</v>
+      </c>
+      <c r="F81">
+        <v>0.04647916504620948</v>
+      </c>
+      <c r="G81">
+        <v>0.07605325974319548</v>
+      </c>
+      <c r="H81">
+        <v>0.02613577294020718</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1939991221087584</v>
+        <v>0.08146323230165729</v>
       </c>
       <c r="C82">
-        <v>-0.3037702655990991</v>
+        <v>-0.2822971645849436</v>
       </c>
       <c r="D82">
-        <v>0.03405663149744909</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.149320369345217</v>
+      </c>
+      <c r="E82">
+        <v>0.1746186431524452</v>
+      </c>
+      <c r="F82">
+        <v>-0.1448390665778952</v>
+      </c>
+      <c r="G82">
+        <v>0.174263970872607</v>
+      </c>
+      <c r="H82">
+        <v>0.05241468448594515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01187611498889871</v>
+        <v>-0.007178650663133571</v>
       </c>
       <c r="C83">
-        <v>-0.04420108593424982</v>
+        <v>-0.01480642015945033</v>
       </c>
       <c r="D83">
-        <v>0.001270432496037264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04475186294775851</v>
+      </c>
+      <c r="E83">
+        <v>0.09859577014599147</v>
+      </c>
+      <c r="F83">
+        <v>0.1301576680399505</v>
+      </c>
+      <c r="G83">
+        <v>0.5393332859230902</v>
+      </c>
+      <c r="H83">
+        <v>-0.74925646283353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001580858527936603</v>
+        <v>-0.002615753843760244</v>
       </c>
       <c r="C84">
-        <v>-0.004455486747527518</v>
+        <v>-0.02076215306532272</v>
       </c>
       <c r="D84">
-        <v>-0.01022861739892962</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03271944347189667</v>
+      </c>
+      <c r="E84">
+        <v>-0.04118831549997481</v>
+      </c>
+      <c r="F84">
+        <v>0.04248742478389807</v>
+      </c>
+      <c r="G84">
+        <v>0.029432313099629</v>
+      </c>
+      <c r="H84">
+        <v>0.05888210720166305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1198843437368419</v>
+        <v>0.05642109292496386</v>
       </c>
       <c r="C85">
-        <v>-0.1652520131582496</v>
+        <v>-0.179485480044445</v>
       </c>
       <c r="D85">
-        <v>0.09080259557237727</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1198726112660621</v>
+      </c>
+      <c r="E85">
+        <v>0.07102205233246443</v>
+      </c>
+      <c r="F85">
+        <v>0.03347167103361858</v>
+      </c>
+      <c r="G85">
+        <v>0.02206020996303944</v>
+      </c>
+      <c r="H85">
+        <v>0.03796789243320136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02586560989564734</v>
+        <v>0.01613969507959195</v>
       </c>
       <c r="C86">
-        <v>-0.01428570868037145</v>
+        <v>-0.04758600436160645</v>
       </c>
       <c r="D86">
-        <v>-0.0749955225473431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0778377882443964</v>
+      </c>
+      <c r="E86">
+        <v>-0.04189418020088605</v>
+      </c>
+      <c r="F86">
+        <v>0.0635079937617318</v>
+      </c>
+      <c r="G86">
+        <v>0.03082402375235767</v>
+      </c>
+      <c r="H86">
+        <v>0.0633316235334218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02236548863471411</v>
+        <v>0.0123183803029681</v>
       </c>
       <c r="C87">
-        <v>-0.04247831148591085</v>
+        <v>-0.06987604701883345</v>
       </c>
       <c r="D87">
-        <v>-0.1101912559508603</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0878878715800722</v>
+      </c>
+      <c r="E87">
+        <v>-0.09298532801541787</v>
+      </c>
+      <c r="F87">
+        <v>0.0628764439160973</v>
+      </c>
+      <c r="G87">
+        <v>0.05928265345243956</v>
+      </c>
+      <c r="H87">
+        <v>0.03380748350351102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0412320817999641</v>
+        <v>0.03448193298374854</v>
       </c>
       <c r="C88">
-        <v>-0.05723756110482658</v>
+        <v>-0.0725191047963156</v>
       </c>
       <c r="D88">
-        <v>0.00267965880710251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.001427835838904624</v>
+      </c>
+      <c r="E88">
+        <v>-0.02986817043029718</v>
+      </c>
+      <c r="F88">
+        <v>0.01659325309791559</v>
+      </c>
+      <c r="G88">
+        <v>-0.009640985521095069</v>
+      </c>
+      <c r="H88">
+        <v>0.002648449963114583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3614535416848224</v>
+        <v>0.3995469587792941</v>
       </c>
       <c r="C89">
-        <v>0.2743881114573332</v>
+        <v>0.1622164184266867</v>
       </c>
       <c r="D89">
-        <v>-0.002668302705128086</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04585091543405427</v>
+      </c>
+      <c r="E89">
+        <v>-0.0009588424422265806</v>
+      </c>
+      <c r="F89">
+        <v>0.07231667661068661</v>
+      </c>
+      <c r="G89">
+        <v>0.09017942516706005</v>
+      </c>
+      <c r="H89">
+        <v>-0.08943010020347557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.285337342257364</v>
+        <v>0.3210929396586234</v>
       </c>
       <c r="C90">
-        <v>0.1994836493661509</v>
+        <v>0.1039037223498586</v>
       </c>
       <c r="D90">
-        <v>-0.06292788849532292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03896915749133487</v>
+      </c>
+      <c r="E90">
+        <v>-0.02269925030611186</v>
+      </c>
+      <c r="F90">
+        <v>-0.008627610362396759</v>
+      </c>
+      <c r="G90">
+        <v>0.03719117457222405</v>
+      </c>
+      <c r="H90">
+        <v>0.01437660142302288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1282550333466525</v>
+        <v>0.06589978736859291</v>
       </c>
       <c r="C91">
-        <v>-0.20156780403492</v>
+        <v>-0.1958458450369387</v>
       </c>
       <c r="D91">
-        <v>0.09878771638482546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.07120647862211416</v>
+      </c>
+      <c r="E91">
+        <v>0.1326016172863757</v>
+      </c>
+      <c r="F91">
+        <v>0.04205079861093689</v>
+      </c>
+      <c r="G91">
+        <v>0.03785223297425456</v>
+      </c>
+      <c r="H91">
+        <v>0.004030025158420941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2739751841417311</v>
+        <v>0.3367014994223821</v>
       </c>
       <c r="C92">
-        <v>0.2368290457224493</v>
+        <v>0.1520023877331744</v>
       </c>
       <c r="D92">
-        <v>0.0381113748721915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0528572227994053</v>
+      </c>
+      <c r="E92">
+        <v>0.03840825691738483</v>
+      </c>
+      <c r="F92">
+        <v>0.06882689681683521</v>
+      </c>
+      <c r="G92">
+        <v>-0.01510685013669715</v>
+      </c>
+      <c r="H92">
+        <v>0.1364211005399566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3053245918133712</v>
+        <v>0.3281548339297298</v>
       </c>
       <c r="C93">
-        <v>0.2071248977197412</v>
+        <v>0.1198302816085976</v>
       </c>
       <c r="D93">
-        <v>0.03260295656974276</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03051274030722514</v>
+      </c>
+      <c r="E93">
+        <v>0.01052948862775195</v>
+      </c>
+      <c r="F93">
+        <v>0.00821373564463615</v>
+      </c>
+      <c r="G93">
+        <v>-0.02604968405052736</v>
+      </c>
+      <c r="H93">
+        <v>0.03936869699292515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2321362851783969</v>
+        <v>0.1236301406835083</v>
       </c>
       <c r="C94">
-        <v>-0.2829122880286432</v>
+        <v>-0.2996378936629305</v>
       </c>
       <c r="D94">
-        <v>0.1001570177825535</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2377454619280966</v>
+      </c>
+      <c r="E94">
+        <v>0.2485273568479886</v>
+      </c>
+      <c r="F94">
+        <v>-0.1966418834267779</v>
+      </c>
+      <c r="G94">
+        <v>0.2002444584343834</v>
+      </c>
+      <c r="H94">
+        <v>0.1581166887330646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002553771123050037</v>
+        <v>0.0143298780868886</v>
       </c>
       <c r="C95">
-        <v>-0.06091650067199611</v>
+        <v>-0.0895460008906929</v>
       </c>
       <c r="D95">
-        <v>-0.0934381017184743</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1371538951906721</v>
+      </c>
+      <c r="E95">
+        <v>0.003101988398157336</v>
+      </c>
+      <c r="F95">
+        <v>-0.05222213931899482</v>
+      </c>
+      <c r="G95">
+        <v>-0.04152945666349408</v>
+      </c>
+      <c r="H95">
+        <v>-0.02687555158119297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002053934904611174</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001176512985508978</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.001689331672371151</v>
+      </c>
+      <c r="E97">
+        <v>-0.004400365005074676</v>
+      </c>
+      <c r="F97">
+        <v>-0.000133569871913574</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009946405268414387</v>
+      </c>
+      <c r="H97">
+        <v>0.006085967824874832</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1406348388819338</v>
+        <v>0.1349330039825145</v>
       </c>
       <c r="C98">
-        <v>-0.1015145456753395</v>
+        <v>-0.1619370476545056</v>
       </c>
       <c r="D98">
-        <v>-0.1302603893783238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02540445992156198</v>
+      </c>
+      <c r="E98">
+        <v>-0.1614247295989133</v>
+      </c>
+      <c r="F98">
+        <v>-0.2585389733740791</v>
+      </c>
+      <c r="G98">
+        <v>-0.255721472179779</v>
+      </c>
+      <c r="H98">
+        <v>-0.2103471770471226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002032677410347174</v>
+        <v>0.003031585287380006</v>
       </c>
       <c r="C101">
-        <v>-0.02160193796314897</v>
+        <v>-0.04302319305632213</v>
       </c>
       <c r="D101">
-        <v>-0.06105966537446333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03853141225522608</v>
+      </c>
+      <c r="E101">
+        <v>-0.1221502440498385</v>
+      </c>
+      <c r="F101">
+        <v>0.04827818874625615</v>
+      </c>
+      <c r="G101">
+        <v>0.01397550058101969</v>
+      </c>
+      <c r="H101">
+        <v>-0.0517909270773571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.07728928652000622</v>
+        <v>0.01929299954119566</v>
       </c>
       <c r="C102">
-        <v>-0.1638823393125144</v>
+        <v>-0.128478623118627</v>
       </c>
       <c r="D102">
-        <v>-0.008689604718126475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06302374154491495</v>
+      </c>
+      <c r="E102">
+        <v>0.08950047917987855</v>
+      </c>
+      <c r="F102">
+        <v>-0.08548511759649526</v>
+      </c>
+      <c r="G102">
+        <v>0.06315419997914587</v>
+      </c>
+      <c r="H102">
+        <v>0.007477736699148688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
